--- a/biology/Neurosciences/Alain_Berthoz/Alain_Berthoz.xlsx
+++ b/biology/Neurosciences/Alain_Berthoz/Alain_Berthoz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Berthoz (né le 18 février 1939 à Neuilly-sur-Seine)[1] est un ingénieur diplômé de l'École nationale supérieure des mines de Nancy (N60) et neurophysiologiste français, membre de l'Académie des sciences (depuis 2003)[2], de l'Académie des technologies (depuis 2010)[3] et professeur honoraire au Collège de France (chaire de physiologie de la perception et de l'action)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Berthoz (né le 18 février 1939 à Neuilly-sur-Seine) est un ingénieur diplômé de l'École nationale supérieure des mines de Nancy (N60) et neurophysiologiste français, membre de l'Académie des sciences (depuis 2003), de l'Académie des technologies (depuis 2010) et professeur honoraire au Collège de France (chaire de physiologie de la perception et de l'action).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Berthoz est professeur honoraire au Collège de France.
-Neurophysiologiste, Alain Berthoz est un des grands spécialistes de physiologie intégrative[Quoi ?][5]. Il a orienté ses recherches sur le contrôle multisensoriel du regard, de l'équilibre, de la locomotion et de la mémoire spatiale.
+Neurophysiologiste, Alain Berthoz est un des grands spécialistes de physiologie intégrative[Quoi ?]. Il a orienté ses recherches sur le contrôle multisensoriel du regard, de l'équilibre, de la locomotion et de la mémoire spatiale.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Diplômes et parcours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ingénieur civil des Mines de Nancy (1963)
 Docteur en sciences naturelles (1973) (Paris)
